--- a/Data_dictionary.xlsx
+++ b/Data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SophiaSullivan\Documents\Administrative\Recruiting\Data_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattstoebe/ClonedRepos/Loan_Performance_Public_records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAE54AA-B7E6-46B3-932D-6081E1F63101}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571F122D-6FB6-BE43-A928-E8F61A5E3697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{56B739DE-B8FC-4C0E-BA21-BBF814C1E8BD}"/>
+    <workbookView xWindow="68800" yWindow="-6180" windowWidth="21600" windowHeight="37900" activeTab="1" xr2:uid="{56B739DE-B8FC-4C0E-BA21-BBF814C1E8BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Public Records Dictionary" sheetId="1" r:id="rId1"/>
@@ -498,9 +498,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -538,7 +538,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -644,7 +644,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,7 +786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -796,26 +796,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0928828A-A6D9-41C1-885D-73A866BB0DBF}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>115</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -893,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -923,7 +923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="37" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -983,7 +983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1328,18 +1328,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73AE140-E2F9-4F35-A461-3C9F0D2DA617}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>115</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>112</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>110</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>108</v>
       </c>
@@ -1404,17 +1404,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A12A2-04AA-45CB-BE27-B1E2FEB6002C}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -1526,11 +1526,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
@@ -1546,18 +1546,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24404107-0904-446C-9A72-C3A4CA580C2A}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>83</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>79</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>63</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>69</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>72</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>73</v>
       </c>
